--- a/input.xlsx
+++ b/input.xlsx
@@ -27,7 +27,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>一级</t>
+  </si>
+  <si>
+    <t>二级</t>
+  </si>
+  <si>
+    <t>三级</t>
+  </si>
+  <si>
+    <t>内容1</t>
+  </si>
+  <si>
+    <t>内容2</t>
+  </si>
   <si>
     <t>一级标题1</t>
   </si>
@@ -39,9 +54,6 @@
   </si>
   <si>
     <t>内容1.1.1.1</t>
-  </si>
-  <si>
-    <t>内容2</t>
   </si>
   <si>
     <t>三级标题1.1.2</t>
@@ -1256,10 +1268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1272,10 +1284,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1288,49 +1300,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2"/>
@@ -1338,13 +1364,16 @@
     <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowWidth="28000" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,8 @@
     <t>三级标题1.1.1</t>
   </si>
   <si>
-    <t>内容1.1.1.1</t>
+    <t>内容1.1.1.1
+此处是换行</t>
   </si>
   <si>
     <t>三级标题1.1.2</t>
@@ -727,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,7 +1275,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1300,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="52" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1314,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1318,14 +1322,14 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>10</v>
       </c>
